--- a/medicine/Mort/Nécropole_nationale_de_La_Fontenelle/Nécropole_nationale_de_La_Fontenelle.xlsx
+++ b/medicine/Mort/Nécropole_nationale_de_La_Fontenelle/Nécropole_nationale_de_La_Fontenelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_La_Fontenelle</t>
+          <t>Nécropole_nationale_de_La_Fontenelle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Nécropole nationale de La Fontenelle est un cimetière militaire français de la Première Guerre mondiale situé sur le territoire de la commune de Ban-de-Sapt dans le département des Vosges.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_La_Fontenelle</t>
+          <t>Nécropole_nationale_de_La_Fontenelle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La nécropole nationale est située au lieu-dit La Fontenelle. La butte de la Fontenelle est à 627 mètres[1] d'altitude[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La nécropole nationale est située au lieu-dit La Fontenelle. La butte de la Fontenelle est à 627 mètres d'altitude.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_La_Fontenelle</t>
+          <t>Nécropole_nationale_de_La_Fontenelle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,12 +556,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle rassemble les dépouilles de 1 384 militaires français, dont 424 en ossuaire[3],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle rassemble les dépouilles de 1 384 militaires français, dont 424 en ossuaire,.
 Elle a été créée en 1921-1923 et rassemble les corps des soldats morts lors de la Bataille de la Fontenelle de septembre 1914 à juillet 1915.
 Depuis 2010, l’ONACVG assure l’entretien, la gestion et la valorisation des 273 nécropoles nationales, dont la nécropole de La Fontenelle.
-La Nécropole nationale de la Fontenelle a fait l'objet d'une inscription au titre des monuments historiques par arrêté du 28 décembre 2017[5].
+La Nécropole nationale de la Fontenelle a fait l'objet d'une inscription au titre des monuments historiques par arrêté du 28 décembre 2017.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_La_Fontenelle</t>
+          <t>Nécropole_nationale_de_La_Fontenelle</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La nécropole regroupe les cimetières militaires de La Fontenelle et des environs[6], de Germainfaing[7], de Launois et de Celles-sur-Plaine[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La nécropole regroupe les cimetières militaires de La Fontenelle et des environs, de Germainfaing, de Launois et de Celles-sur-Plaine.
 La Nécropole nationale de La Fontenelle regroupe près de 1 384 corps issus de neuf cimetières militaires provisoires. Les dépouilles de 424 soldats reposent en ossuaire.
 </t>
         </is>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_La_Fontenelle</t>
+          <t>Nécropole_nationale_de_La_Fontenelle</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,11 +626,13 @@
           <t>Monuments commémoratifs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Monument à la mémoire des combattants de 1915[9] : un monument à la double effigie de Marianne et d'un poilu fut édifié en 1920 au sein de la nécropole de la Fontenelle et les combats de 1915 sont alors commémorés tous les deuxièmes dimanches de juillet.
-Un sentier de la mémoire, balisé d'indications historiques, retrace, suivant les pas d'un soldat, l'histoire de cette page sombre de la commune[10].
-L’association « Paysages et Sites de mémoire de la Grande Guerre » a par ailleurs proposé une inscription au patrimoine mondial de l'UNESCO des sites du front ouest de la Grande Guerre[11], et notamment du site "Ban-de-Sapt / Senones"[12].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monument à la mémoire des combattants de 1915 : un monument à la double effigie de Marianne et d'un poilu fut édifié en 1920 au sein de la nécropole de la Fontenelle et les combats de 1915 sont alors commémorés tous les deuxièmes dimanches de juillet.
+Un sentier de la mémoire, balisé d'indications historiques, retrace, suivant les pas d'un soldat, l'histoire de cette page sombre de la commune.
+L’association « Paysages et Sites de mémoire de la Grande Guerre » a par ailleurs proposé une inscription au patrimoine mondial de l'UNESCO des sites du front ouest de la Grande Guerre, et notamment du site "Ban-de-Sapt / Senones".
 </t>
         </is>
       </c>
